--- a/fastqFiles/fastq_0731.xlsx
+++ b/fastqFiles/fastq_0731.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68FC56F-58B5-F947-88CD-CEF7C2FA9088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13A0297-DD4D-0645-BDC7-6E330461ACAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24700" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
   <si>
     <t>libraryDate</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B19 E2:E19"/>
+      <selection activeCell="D20" sqref="D20:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -506,7 +509,7 @@
         <v>731</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -526,7 +529,7 @@
         <v>731</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -546,7 +549,7 @@
         <v>731</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -566,7 +569,7 @@
         <v>731</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -586,7 +589,7 @@
         <v>731</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -606,7 +609,7 @@
         <v>731</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -626,7 +629,7 @@
         <v>731</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -646,7 +649,7 @@
         <v>731</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -666,7 +669,7 @@
         <v>731</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -686,7 +689,7 @@
         <v>731</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -706,7 +709,7 @@
         <v>731</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -726,7 +729,7 @@
         <v>731</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -746,7 +749,7 @@
         <v>731</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -766,7 +769,7 @@
         <v>731</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -786,7 +789,7 @@
         <v>731</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -806,7 +809,7 @@
         <v>731</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -826,7 +829,7 @@
         <v>731</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
         <v>24</v>
@@ -846,7 +849,7 @@
         <v>731</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>

--- a/fastqFiles/fastq_0731.xlsx
+++ b/fastqFiles/fastq_0731.xlsx
@@ -49,61 +49,61 @@
     <t xml:space="preserve">fullRNASEQ</t>
   </si>
   <si>
-    <t xml:space="preserve">sequence/run_0731_samples/run_731_s_6_withindex_sequence_TGAGGTT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0731_samples/run_731_s_6_withindex_sequence_GCTTAGA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0731_samples/run_731_s_6_withindex_sequence_ATGACAG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0731_samples/run_731_s_6_withindex_sequence_CACCTCC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0731_samples/run_731_s_6_withindex_sequence_ATCGAGC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0731_samples/run_731_s_6_withindex_sequence_TACTCTA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0731_samples/run_731_s_6_withindex_sequence_AGACTGA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0731_samples/run_731_s_6_withindex_sequence_CTTGGAA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0731_samples/run_731_s_6_withindex_sequence_CCGATTA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0731_samples/run_731_s_6_withindex_sequence_GGCAGCG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0731_samples/run_731_s_6_withindex_sequence_CCATCAT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0731_samples/run_731_s_6_withindex_sequence_TAACAAG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0731_samples/run_731_s_6_withindex_sequence_GAGGCGT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0731_samples/run_731_s_6_withindex_sequence_TTTAACT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0731_samples/run_731_s_6_withindex_sequence_GGTCCTC.fastq.gz</t>
+    <t xml:space="preserve">run_731_s_6_withindex_sequence_TGAGGTT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_731_s_6_withindex_sequence_GCTTAGA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_731_s_6_withindex_sequence_ATGACAG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_731_s_6_withindex_sequence_CACCTCC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_731_s_6_withindex_sequence_ATCGAGC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_731_s_6_withindex_sequence_TACTCTA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_731_s_6_withindex_sequence_AGACTGA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_731_s_6_withindex_sequence_CTTGGAA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_731_s_6_withindex_sequence_CCGATTA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_731_s_6_withindex_sequence_GGCAGCG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_731_s_6_withindex_sequence_CCATCAT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_731_s_6_withindex_sequence_TAACAAG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_731_s_6_withindex_sequence_GAGGCGT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_731_s_6_withindex_sequence_TTTAACT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_731_s_6_withindex_sequence_GGTCCTC.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">05.01.12</t>
   </si>
   <si>
-    <t xml:space="preserve">sequence/run_0731_samples/run_731_s_6_withindex_sequence_CGGTGGC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0731_samples/run_731_s_6_withindex_sequence_ACTGTCG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0731_samples/run_731_s_6_withindex_sequence_GTATTTG.fastq.gz</t>
+    <t xml:space="preserve">run_731_s_6_withindex_sequence_CGGTGGC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_731_s_6_withindex_sequence_ACTGTCG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_731_s_6_withindex_sequence_GTATTTG.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -222,7 +222,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C19"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/fastqFiles/fastq_0731.xlsx
+++ b/fastqFiles/fastq_0731.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">

--- a/fastqFiles/fastq_0731.xlsx
+++ b/fastqFiles/fastq_0731.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">run_731_s_6_withindex_sequence_CACCTCC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4]</t>
   </si>
   <si>
     <t xml:space="preserve">run_731_s_6_withindex_sequence_ATCGAGC.fastq.gz</t>
@@ -213,12 +216,14 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R11" activeCellId="0" sqref="R11"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -332,11 +337,11 @@
       <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>9</v>
       </c>
@@ -353,16 +358,16 @@
         <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
@@ -379,13 +384,13 @@
         <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>4</v>
+      <c r="I7" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -405,7 +410,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,7 +430,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,7 +450,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -465,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -485,7 +490,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -505,7 +510,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,7 +550,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -565,12 +570,12 @@
         <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>10</v>
@@ -585,12 +590,12 @@
         <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>10</v>
@@ -605,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
@@ -613,7 +618,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>10</v>
@@ -628,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
